--- a/xlsx/喀麥隆_intext.xlsx
+++ b/xlsx/喀麥隆_intext.xlsx
@@ -29,7 +29,7 @@
     <t>喀麥隆國旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_喀麥隆</t>
+    <t>体育运动_体育运动_南非_喀麥隆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A5%E9%9A%86%E5%9C%8B%E5%BE%BD</t>
